--- a/Fix/fix cur. 22.xlsx
+++ b/Fix/fix cur. 22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>amt</t>
   </si>
@@ -76,9 +76,6 @@
     <t>q</t>
   </si>
   <si>
-    <t>12+1</t>
-  </si>
-  <si>
     <t>913040005788755</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t xml:space="preserve"> 1111500111497001 </t>
   </si>
   <si>
-    <t>50300041454823</t>
-  </si>
-  <si>
     <t xml:space="preserve">914040017483807 </t>
   </si>
   <si>
@@ -167,6 +161,15 @@
   </si>
   <si>
     <t>50300080032442</t>
+  </si>
+  <si>
+    <t>50300091974896</t>
+  </si>
+  <si>
+    <t>12+25</t>
+  </si>
+  <si>
+    <t>8911584817</t>
   </si>
 </sst>
 </file>
@@ -778,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U112"/>
+  <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -933,7 +936,7 @@
         <v>5164</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="10"/>
@@ -1043,7 +1046,7 @@
         <v>10215</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="20"/>
@@ -1084,7 +1087,7 @@
         <v>4830</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="10"/>
@@ -1125,7 +1128,7 @@
         <v>3425</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="10"/>
@@ -1166,7 +1169,7 @@
         <v>2309</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="10"/>
@@ -1217,13 +1220,13 @@
         <v>9.6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="13">
@@ -1258,13 +1261,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="13">
@@ -1277,7 +1280,7 @@
         <v>10125</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="10"/>
@@ -1299,13 +1302,13 @@
         <v>9.6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="13">
@@ -1318,7 +1321,7 @@
         <v>3175</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="10"/>
@@ -1388,7 +1391,7 @@
         <v>1871</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="10"/>
@@ -1404,13 +1407,13 @@
     </row>
     <row r="17" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="8">
-        <v>3.55</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8">
-        <v>9.43</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>20</v>
+        <v>9.18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>6</v>
@@ -1420,16 +1423,16 @@
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="13">
-        <v>41761</v>
+        <v>42051</v>
       </c>
       <c r="H17" s="13">
-        <v>42127</v>
+        <v>42782</v>
       </c>
       <c r="I17" s="28">
-        <v>2843</v>
+        <v>13254</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="10"/>
@@ -1443,46 +1446,46 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
     </row>
-    <row r="18" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
-        <v>9.18</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="8" t="s">
+    <row r="18" spans="1:21" s="53" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A18" s="49">
+        <v>3.75</v>
+      </c>
+      <c r="B18" s="49">
+        <v>8.93</v>
+      </c>
+      <c r="C18" s="49">
+        <v>12</v>
+      </c>
+      <c r="D18" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="13">
-        <v>42051</v>
-      </c>
-      <c r="H18" s="13">
-        <v>42782</v>
-      </c>
-      <c r="I18" s="28">
-        <v>13254</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50">
+        <v>42135</v>
+      </c>
+      <c r="H18" s="50">
+        <v>42502</v>
+      </c>
+      <c r="I18" s="25">
+        <v>2500</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
     </row>
     <row r="19" spans="1:21" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
@@ -1492,15 +1495,15 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3">
         <f>SUM(A16:A18)</f>
-        <v>22.95</v>
+        <v>23.15</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="7"/>
       <c r="J19" s="3"/>
       <c r="K19" s="7">
-        <f>SUM(I16:I17)</f>
-        <v>4714</v>
+        <f>SUM(I16:I18)</f>
+        <v>17625</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1581,7 +1584,7 @@
         <v>4500</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="49"/>
       <c r="L21" s="52"/>
@@ -1622,7 +1625,7 @@
         <v>2803</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="4"/>
@@ -1663,7 +1666,7 @@
         <v>4672</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
@@ -1704,7 +1707,7 @@
         <v>2559</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="23"/>
@@ -1745,7 +1748,7 @@
         <v>3656</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="4"/>
@@ -1787,7 +1790,7 @@
         <v>375</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="33"/>
@@ -1867,7 +1870,7 @@
         <v>19</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="43"/>
       <c r="G29" s="44">
@@ -1880,7 +1883,7 @@
         <v>570</v>
       </c>
       <c r="J29" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29" s="43"/>
       <c r="L29" s="46"/>
@@ -1908,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="5">
@@ -1921,7 +1924,7 @@
         <v>2183</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="4"/>
@@ -1949,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="5">
@@ -1962,7 +1965,7 @@
         <v>2612</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
@@ -1990,7 +1993,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="5">
@@ -2003,7 +2006,7 @@
         <v>4210</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
@@ -2031,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="5">
@@ -2044,7 +2047,7 @@
         <v>4210</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
@@ -2059,16 +2062,34 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="3"/>
+      <c r="G34" s="5">
+        <v>42135</v>
+      </c>
+      <c r="H34" s="5">
+        <v>42526</v>
+      </c>
+      <c r="I34" s="16">
+        <v>1687</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -2087,10 +2108,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3">
-        <f>SUM(A29:A33)</f>
-        <v>17.200000000000003</v>
-      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7"/>
@@ -2113,7 +2131,10 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3">
+        <f>SUM(A29:A33)</f>
+        <v>17.200000000000003</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="7"/>
@@ -2136,15 +2157,11 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="7">
-        <f>SUM(I3:I33)</f>
-        <v>99295</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -2160,17 +2177,17 @@
     <row r="38" spans="1:21" ht="12.75" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="I38" s="7">
-        <v>18095</v>
+        <f>SUM(I3:I33)</f>
+        <v>98952</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
@@ -2186,14 +2203,19 @@
     </row>
     <row r="39" spans="1:21" ht="12.75" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="3"/>
+      <c r="I39" s="7">
+        <v>18095</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -2207,22 +2229,14 @@
       <c r="U39" s="4"/>
     </row>
     <row r="40" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A40" s="48">
-        <v>42050</v>
-      </c>
-      <c r="B40" s="7"/>
+      <c r="A40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="1">
-        <f>SUM(F3:F35)</f>
-        <v>125.2</v>
-      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="14">
-        <f>I37+I38</f>
-        <v>117390</v>
-      </c>
+      <c r="I40" s="17"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
@@ -2237,12 +2251,22 @@
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="48">
+        <v>42050</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1">
+        <f>SUM(F3:F36)</f>
+        <v>125.4</v>
+      </c>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="I41" s="14">
+        <f>I38+I39</f>
+        <v>117047</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
@@ -2259,8 +2283,8 @@
     <row r="42" spans="1:21" ht="12.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="11"/>
-      <c r="E42" s="4"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="12"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="3"/>
@@ -2279,14 +2303,11 @@
     <row r="43" spans="1:21" ht="12.75" customHeight="1">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="11"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="7"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="36"/>
+      <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -2300,22 +2321,14 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="4">
-        <v>250000</v>
-      </c>
-      <c r="C44" s="4">
-        <f>SUM(I20:I25) * 12 + 4*I26</f>
-        <v>243780</v>
-      </c>
-      <c r="E44" s="4">
-        <f>B44-C44</f>
-        <v>6220</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="7"/>
       <c r="I44" s="4"/>
       <c r="J44" s="36"/>
       <c r="K44" s="3"/>
@@ -2332,17 +2345,18 @@
     </row>
     <row r="45" spans="1:21" ht="12.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B45" s="4">
         <v>250000</v>
       </c>
       <c r="C45" s="4">
-        <v>211176</v>
+        <f>SUM(I20:I25) * 12 + 4*I26</f>
+        <v>243780</v>
       </c>
       <c r="E45" s="4">
         <f>B45-C45</f>
-        <v>38824</v>
+        <v>6220</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -2362,36 +2376,22 @@
     </row>
     <row r="46" spans="1:21" ht="12.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B46" s="4">
         <v>250000</v>
       </c>
       <c r="C46" s="4">
-        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11) + (1331 + 3175 * 8)</f>
-        <v>243076</v>
-      </c>
-      <c r="D46" s="4"/>
+        <v>211176</v>
+      </c>
       <c r="E46" s="4">
-        <f t="shared" ref="E46:E48" si="0">B46-C46</f>
-        <v>6924</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46">
-        <f>G40*0.1/12</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="17">
-        <v>9</v>
-      </c>
-      <c r="I46" s="17">
-        <f>G46*H46</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="35">
-        <f>C46+I46</f>
-        <v>243076</v>
-      </c>
+        <f>B46-C46</f>
+        <v>38824</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="36"/>
       <c r="K46" s="3"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -2406,19 +2406,19 @@
     </row>
     <row r="47" spans="1:21" ht="12.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B47" s="4">
         <v>250000</v>
       </c>
       <c r="C47" s="4">
-        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567 + (2309 * 9)</f>
-        <v>244803</v>
+        <f>(29597 + 6488) + (3175 * 2 + 1258) + (3175 * 12) + (5354 * 3 + 1040) + (6075 + 10125 * 11) + (1331 + 3175 * 8)</f>
+        <v>243076</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4">
-        <f>B47-C47</f>
-        <v>5197</v>
+        <f t="shared" ref="E47:E49" si="0">B47-C47</f>
+        <v>6924</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="J47" s="35">
         <f>C47+I47</f>
-        <v>244803</v>
+        <v>243076</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="4"/>
@@ -2450,24 +2450,36 @@
     </row>
     <row r="48" spans="1:21" ht="12.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" s="4">
         <v>250000</v>
       </c>
       <c r="C48" s="4">
-        <v>174204</v>
+        <f>(4030 * 3) + (3425 * 9) + (10215 * 12) + (4830 * 12) + 567 + (2309 * 9)</f>
+        <v>244803</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4">
-        <f t="shared" si="0"/>
-        <v>75796</v>
+        <f>B48-C48</f>
+        <v>5197</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="36"/>
+      <c r="G48">
+        <f>G42*0.1/12</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="17">
+        <v>9</v>
+      </c>
+      <c r="I48" s="17">
+        <f>G48*H48</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="35">
+        <f>C48+I48</f>
+        <v>244803</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -2481,16 +2493,25 @@
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="4">
+        <v>250000</v>
+      </c>
+      <c r="C49" s="4">
+        <v>174204</v>
+      </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>75796</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="3"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="3"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -2596,7 +2617,7 @@
       <c r="U53" s="4"/>
     </row>
     <row r="54" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A54" s="35"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2619,7 +2640,7 @@
       <c r="U54" s="4"/>
     </row>
     <row r="55" spans="1:21" ht="12.75" customHeight="1">
-      <c r="A55" s="4"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3952,6 +3973,29 @@
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
     </row>
+    <row r="113" spans="1:21" ht="12.75" customHeight="1">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
